--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,19 @@
     <t>88b63550-690b-4866-9085-6bae40f52bf6.md</t>
   </si>
   <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md</t>
+  </si>
+  <si>
+    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md</t>
+    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -82,6 +91,15 @@
     <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf</t>
   </si>
   <si>
+    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:06:42</t>
+  </si>
+  <si>
+    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -92,6 +110,15 @@
   </si>
   <si>
     <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:06:53</t>
+  </si>
+  <si>
+    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -196,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -251,11 +278,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId2"/>
     <hyperlink ref="A3" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId5"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -266,7 +317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -285,31 +336,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -320,16 +371,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -340,16 +391,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -359,14 +410,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +466,11 @@
     <hyperlink ref="C2" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId4"/>
     <hyperlink ref="C3" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -386,7 +481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,31 +500,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -440,16 +535,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -460,16 +555,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -479,14 +574,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +630,11 @@
     <hyperlink ref="C2" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId4"/>
     <hyperlink ref="C3" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -100,6 +100,9 @@
     <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-25 03:07:25</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:07:35</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -457,7 +463,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>22</v>
@@ -555,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -575,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -595,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -109,7 +109,7 @@
     <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:09:30</t>
+    <t>2016-01-25 03:11:48</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -139,7 +139,7 @@
     <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:09:42</t>
+    <t>2016-01-25 03:11:59</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>88b63550-690b-4866-9085-6bae40f52bf6.md</t>
   </si>
   <si>
+    <t>c581042a-d6d5-4f26-980c-3c1b59453863.md</t>
+  </si>
+  <si>
     <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>c581042a-d6d5-4f26-980c-3c1b59453863.md</t>
+    <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -97,6 +100,15 @@
     <t>2016-01-25 03:05:12</t>
   </si>
   <si>
+    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:11:48</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:12:38</t>
+  </si>
+  <si>
     <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf</t>
   </si>
   <si>
@@ -106,10 +118,10 @@
     <t>2016-01-25 03:07:25</t>
   </si>
   <si>
-    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:11:48</t>
+    <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:14:21</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -127,6 +139,15 @@
     <t>2016-01-25 03:05:29</t>
   </si>
   <si>
+    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:11:59</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:12:55</t>
+  </si>
+  <si>
     <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf</t>
   </si>
   <si>
@@ -136,10 +157,10 @@
     <t>2016-01-25 03:07:35</t>
   </si>
   <si>
-    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:11:59</t>
+    <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:14:31</t>
   </si>
 </sst>
 </file>
@@ -244,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,21 +325,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -326,20 +347,32 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId2"/>
     <hyperlink ref="A3" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
+    <hyperlink ref="A4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId7"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -350,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -369,31 +402,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -404,16 +437,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -424,16 +457,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -444,16 +477,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -461,39 +500,39 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -501,16 +540,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -519,13 +578,17 @@
     <hyperlink ref="C2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
     <hyperlink ref="C3" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId8"/>
+    <hyperlink ref="F4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -536,7 +599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -555,31 +618,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -590,16 +653,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -610,16 +673,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -630,16 +693,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -647,39 +716,39 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -687,16 +756,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -705,13 +794,17 @@
     <hyperlink ref="C2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
     <hyperlink ref="C3" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId8"/>
+    <hyperlink ref="F4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -121,7 +121,7 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:14:21</t>
+    <t>2016-01-25 03:15:47</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -160,7 +160,7 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:14:31</t>
+    <t>2016-01-25 03:15:57</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -121,7 +121,7 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:15:47</t>
+    <t>2016-01-25 03:16:28</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -160,7 +160,7 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:15:57</t>
+    <t>2016-01-25 03:16:38</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -124,6 +127,12 @@
     <t>2016-01-25 03:16:28</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:17:58</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -161,6 +170,12 @@
   </si>
   <si>
     <t>2016-01-25 03:16:38</t>
+  </si>
+  <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:09</t>
   </si>
 </sst>
 </file>
@@ -265,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,10 +373,21 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +398,8 @@
     <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId5"/>
     <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId6"/>
     <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId7"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
+    <hyperlink ref="A8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -383,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,31 +429,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -437,16 +464,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -457,16 +484,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -477,22 +504,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -543,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -560,16 +587,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +635,9 @@
     <hyperlink ref="C6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId14"/>
     <hyperlink ref="C7" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,7 +648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,31 +667,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -653,16 +702,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -673,16 +722,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -693,22 +742,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -719,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -739,16 +788,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -759,16 +808,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -776,16 +825,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +873,9 @@
     <hyperlink ref="C6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId14"/>
     <hyperlink ref="C7" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.md</t>
   </si>
   <si>
@@ -49,9 +55,6 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
   </si>
   <si>
-    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -85,6 +88,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:17:58</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:40</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf</t>
   </si>
   <si>
@@ -127,15 +139,18 @@
     <t>2016-01-25 03:16:28</t>
   </si>
   <si>
-    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:17:58</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:09</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:56</t>
+  </si>
+  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf</t>
   </si>
   <si>
@@ -170,12 +185,6 @@
   </si>
   <si>
     <t>2016-01-25 03:16:38</t>
-  </si>
-  <si>
-    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:18:09</t>
   </si>
 </sst>
 </file>
@@ -318,43 +327,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -362,43 +371,43 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId8"/>
     <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -429,31 +438,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -464,16 +473,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -481,85 +496,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -567,77 +582,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId8"/>
-    <hyperlink ref="F4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -667,31 +684,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -702,16 +719,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -719,85 +742,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -805,77 +828,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E4" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId8"/>
-    <hyperlink ref="F4" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -139,6 +142,12 @@
     <t>2016-01-25 03:16:28</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:19:50</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -185,6 +194,12 @@
   </si>
   <si>
     <t>2016-01-25 03:16:38</t>
+  </si>
+  <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:20:00</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,10 +408,21 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +434,8 @@
     <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
     <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId7"/>
     <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId8"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId9"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,7 +446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,31 +465,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -473,22 +500,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +526,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +546,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +566,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -565,16 +592,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -605,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +649,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +701,9 @@
     <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
     <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -665,7 +714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,31 +733,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -719,22 +768,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -745,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -765,16 +814,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -785,22 +834,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -811,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -831,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -851,16 +900,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -868,16 +917,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +969,9 @@
     <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
     <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -145,7 +145,7 @@
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:19:50</t>
+    <t>2016-01-25 03:21:12</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -199,7 +199,7 @@
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:20:00</t>
+    <t>2016-01-25 03:21:23</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
   </si>
   <si>
-    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,6 +91,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:21:12</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:21:55</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>2016-01-25 03:18:40</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,15 +151,18 @@
     <t>2016-01-25 03:16:28</t>
   </si>
   <si>
-    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:21:12</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:21:23</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:22:12</t>
+  </si>
+  <si>
     <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
   </si>
   <si>
@@ -194,12 +206,6 @@
   </si>
   <si>
     <t>2016-01-25 03:16:38</t>
-  </si>
-  <si>
-    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:21:23</t>
   </si>
 </sst>
 </file>
@@ -342,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -364,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -375,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -386,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -427,14 +433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -523,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -531,6 +537,12 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -540,10 +552,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -552,7 +564,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -563,22 +575,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -589,16 +595,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -609,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -626,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -649,16 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -672,38 +684,40 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -768,19 +782,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>28</v>
@@ -791,16 +805,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -808,19 +828,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -831,22 +851,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -857,16 +871,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -877,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -894,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -917,16 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -940,38 +960,40 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -25,39 +25,39 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>88b63550-690b-4866-9085-6bae40f52bf6.md</t>
+  </si>
+  <si>
+    <t>c581042a-d6d5-4f26-980c-3c1b59453863.md</t>
+  </si>
+  <si>
+    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md</t>
+  </si>
+  <si>
+    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
+  </si>
+  <si>
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
-  </si>
-  <si>
-    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>88b63550-690b-4866-9085-6bae40f52bf6.md</t>
-  </si>
-  <si>
-    <t>c581042a-d6d5-4f26-980c-3c1b59453863.md</t>
-  </si>
-  <si>
-    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md</t>
-  </si>
-  <si>
-    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,121 +91,121 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:17:58</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:40</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:06:42</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:05:12</t>
+  </si>
+  <si>
+    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:11:48</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:12:38</t>
+  </si>
+  <si>
+    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:07:25</t>
+  </si>
+  <si>
+    <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:16:28</t>
+  </si>
+  <si>
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:21:12</t>
+    <t>2016-01-25 03:22:56</t>
   </si>
   <si>
     <t>2016-01-25 03:21:55</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:17:58</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:18:40</t>
-  </si>
-  <si>
-    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:06:42</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:05:12</t>
-  </si>
-  <si>
-    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:11:48</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:12:38</t>
-  </si>
-  <si>
-    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:07:25</t>
-  </si>
-  <si>
-    <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:16:28</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:09</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:18:56</t>
+  </si>
+  <si>
+    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:06:53</t>
+  </si>
+  <si>
+    <t>88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:05:29</t>
+  </si>
+  <si>
+    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:11:59</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:12:55</t>
+  </si>
+  <si>
+    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:07:35</t>
+  </si>
+  <si>
+    <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:16:38</t>
+  </si>
+  <si>
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:21:23</t>
+    <t>2016-01-25 03:23:07</t>
   </si>
   <si>
     <t>2016-01-25 03:22:12</t>
-  </si>
-  <si>
-    <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:18:09</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:18:56</t>
-  </si>
-  <si>
-    <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:06:53</t>
-  </si>
-  <si>
-    <t>88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:05:29</t>
-  </si>
-  <si>
-    <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:11:59</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:12:55</t>
-  </si>
-  <si>
-    <t>eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:07:35</t>
-  </si>
-  <si>
-    <t>a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:16:38</t>
   </si>
 </sst>
 </file>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -433,14 +433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -537,12 +537,6 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -552,10 +546,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -564,7 +558,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -575,16 +569,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -595,22 +595,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -621,16 +615,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -638,19 +632,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -661,16 +655,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -695,28 +695,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId16"/>
-    <hyperlink ref="F6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="E9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId22"/>
+    <hyperlink ref="F9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -813,14 +813,8 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -828,19 +822,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -851,16 +845,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -871,22 +871,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -897,16 +891,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -914,19 +908,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -937,16 +931,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -971,28 +971,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="E6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId16"/>
-    <hyperlink ref="F6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="E9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId22"/>
+    <hyperlink ref="F9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>a5d079c2-1396-4f01-82f7-80769c44f640.md</t>
   </si>
   <si>
-    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,6 +91,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:22:56</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:25:13</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>2016-01-25 03:18:40</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,18 +151,18 @@
     <t>2016-01-25 03:16:28</t>
   </si>
   <si>
-    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:22:56</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:21:55</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:23:07</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:25:32</t>
+  </si>
+  <si>
     <t>f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf</t>
   </si>
   <si>
@@ -197,15 +206,6 @@
   </si>
   <si>
     <t>2016-01-25 03:16:38</t>
-  </si>
-  <si>
-    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:23:07</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:22:12</t>
   </si>
 </sst>
 </file>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -433,14 +433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -537,6 +537,12 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -546,10 +552,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -558,7 +564,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -569,22 +575,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -595,16 +595,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -615,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -632,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -655,22 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -695,28 +695,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="E9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId22"/>
-    <hyperlink ref="F9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -813,8 +813,14 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -822,19 +828,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -845,22 +851,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -871,16 +871,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -891,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -908,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -931,22 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -971,28 +971,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="E9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId22"/>
-    <hyperlink ref="F9" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="0ed12709-d088-4d8c-8475-0e19163a68f3.bc16ce64bd8926fc2a9dfb5ce635faaa02561a40.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="88b63550-690b-4866-9085-6bae40f52bf6.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="88b63550-690b-4866-9085-6bae40f52bf6.7187555e9660a7463e2b9e7be747327a8f8f343d.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="eaff493e-b3d4-4f4e-90b1-64f9b3f29d33.34f728b61c45b280c81aa4a7d18264a462f6403a.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="45cefd5f-f1e5-46e1-9604-137c12761e97.ff005cdba3b917e92e3a7ff3db8ae7ae7f76afa5.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="a5d079c2-1396-4f01-82f7-80769c44f640.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="a5d079c2-1396-4f01-82f7-80769c44f640.d99f3028deb065a2bc07474fd2c3b3d2b380953e.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>a.md.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>b.md.md</t>
@@ -73,12 +73,15 @@
     <t>2016-01-25 03:26:48</t>
   </si>
   <si>
+    <t>2016-01-25 03:27:26</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-01-25 03:26:59</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:27:45</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>b.md.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t>Include</t>
   </si>
   <si>
+    <t>b.md.b3a40d6229ff1a8b48804fcfc66c95922eb78fd0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:28:26</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
   </si>
   <si>
     <t>2016-01-25 03:27:45</t>
+  </si>
+  <si>
+    <t>b.md.b3a40d6229ff1a8b48804fcfc66c95922eb78fd0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:28:36</t>
   </si>
 </sst>
 </file>
@@ -234,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -285,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -320,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -343,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -388,7 +403,7 @@
     <hyperlink ref="E2" display="a.md.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.md.b3a40d6229ff1a8b48804fcfc66c95922eb78fd0.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.md.370104d57010292b5765347db07350cde3a977e8.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
@@ -421,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -456,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -479,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +539,7 @@
     <hyperlink ref="E2" display="a.md.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.md.b3a40d6229ff1a8b48804fcfc66c95922eb78fd0.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.md.370104d57010292b5765347db07350cde3a977e8.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-25 03:36:25</t>
   </si>
   <si>
+    <t>2016-01-25 03:37:17</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-25 03:36:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:37:33</t>
   </si>
   <si>
     <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
     <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
     <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:36:25</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:37:17</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:36:25</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:37:17</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
+    <t>2016-01-25 03:38:37</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:36:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:37:33</t>
+  </si>
+  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:36:37</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:37:33</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
+    <t>2016-01-25 03:38:49</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:38:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:39:28</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-01-25 03:37:17</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:38:37</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:38:49</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:39:44</t>
+  </si>
+  <si>
     <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-01-25 03:37:33</t>
-  </si>
-  <si>
-    <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:38:49</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:38:37</t>
+    <t>2016-01-25 03:40:15</t>
   </si>
   <si>
     <t>2016-01-25 03:39:28</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:36:25</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:37:17</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:38:49</t>
+    <t>2016-01-25 03:40:25</t>
   </si>
   <si>
     <t>2016-01-25 03:39:44</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:36:37</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:37:33</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-25 03:40:15</t>
   </si>
   <si>
-    <t>2016-01-25 03:39:28</t>
+    <t>2016-01-25 03:40:59</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-25 03:40:25</t>
   </si>
   <si>
-    <t>2016-01-25 03:39:44</t>
+    <t>2016-01-25 03:41:16</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>File Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>306d83a0-e56d-4b01-95b8-a32b948f5fcc.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>9299aedf-4048-4d85-85f0-dd26c93d7c05.md</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>2016-01-25 03:42:03</t>
   </si>
   <si>
+    <t>2016-01-25 03:42:47</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2016-01-25 03:42:15</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:43:04</t>
   </si>
 </sst>
 </file>
@@ -252,32 +255,32 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -315,31 +318,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -350,22 +353,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -373,47 +376,59 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -433,9 +448,13 @@
     <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId6"/>
     <hyperlink ref="C3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="E3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -465,31 +484,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -515,7 +534,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -531,19 +550,25 @@
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -551,19 +576,25 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -583,9 +614,13 @@
     <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId6"/>
     <hyperlink ref="C3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="E3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -100,7 +100,7 @@
     <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:43:52</t>
+    <t>2016-01-25 03:44:32</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +130,7 @@
     <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:44:03</t>
+    <t>2016-01-25 03:44:42</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -25,24 +25,21 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>306d83a0-e56d-4b01-95b8-a32b948f5fcc.md</t>
   </si>
   <si>
     <t>9299aedf-4048-4d85-85f0-dd26c93d7c05.md</t>
   </si>
   <si>
-    <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -76,6 +73,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:44:32</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:46:10</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,9 +94,6 @@
     <t>2016-01-25 03:40:59</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf</t>
   </si>
   <si>
@@ -97,18 +103,21 @@
     <t>2016-01-25 03:42:47</t>
   </si>
   <si>
-    <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:44:32</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:44:42</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:46:27</t>
+  </si>
+  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
   </si>
   <si>
@@ -125,12 +134,6 @@
   </si>
   <si>
     <t>2016-01-25 03:43:04</t>
-  </si>
-  <si>
-    <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:44:42</t>
   </si>
 </sst>
 </file>
@@ -295,29 +298,29 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId5"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -348,31 +351,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -383,22 +386,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -409,22 +412,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -435,22 +438,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -458,27 +461,33 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -492,21 +501,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId10"/>
     <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId12"/>
     <hyperlink ref="F4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A5" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -536,31 +547,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -586,7 +597,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -623,22 +634,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -646,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -654,19 +665,25 @@
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -680,21 +697,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId10"/>
     <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId12"/>
     <hyperlink ref="F4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A5" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -112,7 +112,7 @@
     <t>17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:47:40</t>
+    <t>2016-01-25 03:48:26</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -151,7 +151,7 @@
     <t>17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:47:58</t>
+    <t>2016-01-25 03:48:37</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>17b59157-dd48-41b8-b4cf-841e75cf7644.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.md</t>
   </si>
   <si>
@@ -40,12 +43,6 @@
     <t>9299aedf-4048-4d85-85f0-dd26c93d7c05.md</t>
   </si>
   <si>
-    <t>17b59157-dd48-41b8-b4cf-841e75cf7644.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +76,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:48:26</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:49:09</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf</t>
   </si>
   <si>
@@ -88,9 +97,6 @@
     <t>2016-01-25 03:46:10</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
   </si>
   <si>
@@ -109,18 +115,21 @@
     <t>2016-01-25 03:42:47</t>
   </si>
   <si>
-    <t>17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:48:26</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:48:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:49:26</t>
+  </si>
+  <si>
     <t>1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf</t>
   </si>
   <si>
@@ -146,12 +155,6 @@
   </si>
   <si>
     <t>2016-01-25 03:43:04</t>
-  </si>
-  <si>
-    <t>17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:48:37</t>
   </si>
 </sst>
 </file>
@@ -327,30 +330,30 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId6"/>
     <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -381,31 +384,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -416,22 +419,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -442,22 +445,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -468,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +497,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -517,27 +520,33 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -551,25 +560,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId14"/>
     <hyperlink ref="C5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId16"/>
     <hyperlink ref="F5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A6" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,31 +610,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -649,7 +660,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -675,7 +686,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +712,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -712,22 +723,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -735,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -743,19 +754,25 @@
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -769,25 +786,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1fb9e44e-4df9-4987-bc60-af32ad170fd3.0a2f5cfd315cb75dd1b81dcc7f7de98cc1cef8af.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId14"/>
     <hyperlink ref="C5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId16"/>
     <hyperlink ref="F5" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="17b59157-dd48-41b8-b4cf-841e75cf7644.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="17b59157-dd48-41b8-b4cf-841e75cf7644.5d37f327cc098ebbee710be7326221e6fb42c0b9.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A6" display="9299aedf-4048-4d85-85f0-dd26c93d7c05.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="306d83a0-e56d-4b01-95b8-a32b948f5fcc.dae33526312388e6fe346ae598396f24799588e3.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -46,7 +46,7 @@
     <t>9daece37-623d-4688-9a87-a3b0aeb78d99.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>242ad27a-9fac-4340-b3c4-13871d4cddd5.c8c6456998d65ba8d5a0041a838b6c374cb91292.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:53:53</t>
+    <t>2016-01-25 03:54:35</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>242ad27a-9fac-4340-b3c4-13871d4cddd5.c8c6456998d65ba8d5a0041a838b6c374cb91292.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:54:04</t>
+    <t>2016-01-25 03:54:45</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>242ad27a-9fac-4340-b3c4-13871d4cddd5.md</t>
+    <t>1819ac19-f63f-4a9f-8f49-61e71b6aa141.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>56ed7d88-785e-4b73-959b-9410d4562bc0.md</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>242ad27a-9fac-4340-b3c4-13871d4cddd5.c8c6456998d65ba8d5a0041a838b6c374cb91292.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:54:35</t>
+    <t>1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:55:21</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>242ad27a-9fac-4340-b3c4-13871d4cddd5.c8c6456998d65ba8d5a0041a838b6c374cb91292.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:54:45</t>
+    <t>1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:55:30</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="242ad27a-9fac-4340-b3c4-13871d4cddd5.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="56ed7d88-785e-4b73-959b-9410d4562bc0.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="242ad27a-9fac-4340-b3c4-13871d4cddd5.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="242ad27a-9fac-4340-b3c4-13871d4cddd5.c8c6456998d65ba8d5a0041a838b6c374cb91292.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="56ed7d88-785e-4b73-959b-9410d4562bc0.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="242ad27a-9fac-4340-b3c4-13871d4cddd5.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="242ad27a-9fac-4340-b3c4-13871d4cddd5.c8c6456998d65ba8d5a0041a838b6c374cb91292.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="56ed7d88-785e-4b73-959b-9410d4562bc0.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>1819ac19-f63f-4a9f-8f49-61e71b6aa141.md</t>
+    <t>51853478-e905-4c66-8e2c-0f054f664e21.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>56ed7d88-785e-4b73-959b-9410d4562bc0.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:55:21</t>
+    <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:56:07</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:55:30</t>
+    <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:56:17</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="56ed7d88-785e-4b73-959b-9410d4562bc0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="51853478-e905-4c66-8e2c-0f054f664e21.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="56ed7d88-785e-4b73-959b-9410d4562bc0.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="51853478-e905-4c66-8e2c-0f054f664e21.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1819ac19-f63f-4a9f-8f49-61e71b6aa141.f4db51e1f65967bc2cb86a51ec3a95bb1ec3510e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="56ed7d88-785e-4b73-959b-9410d4562bc0.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="51853478-e905-4c66-8e2c-0f054f664e21.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:56:07</t>
+    <t>2016-01-25 03:56:50</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:56:17</t>
+    <t>2016-01-25 03:57:00</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:56:50</t>
+    <t>2016-01-25 03:57:31</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:57:00</t>
+    <t>2016-01-25 03:57:41</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>51853478-e905-4c66-8e2c-0f054f664e21.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
+    <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:57:31</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:57:41</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="51853478-e905-4c66-8e2c-0f054f664e21.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="51853478-e905-4c66-8e2c-0f054f664e21.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="51853478-e905-4c66-8e2c-0f054f664e21.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="51853478-e905-4c66-8e2c-0f054f664e21.e735f5eb8b250b4f8cbb803fa048f4680209002e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md</t>
   </si>
   <si>
-    <t>Handoff transform failed</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:59:31</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:59:41</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handoff transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:59:31</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:59:41</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.73439136b3b162cbe2fbb380a24d785d05489ea9.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,13 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +67,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:01:35</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:01:45</t>
   </si>
 </sst>
 </file>
@@ -172,7 +190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -210,16 +228,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -230,7 +260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,31 +279,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -283,14 +313,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -298,22 +331,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -324,7 +380,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -343,31 +399,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -377,14 +433,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -392,22 +451,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cbae07d2-d130-47c4-838c-a3cc4cb73d0d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
@@ -73,12 +73,15 @@
     <t>2016-01-25 04:01:35</t>
   </si>
   <si>
+    <t>2016-01-25 04:02:19</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-01-25 04:01:45</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:02:36</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId2"/>
     <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId2"/>
     <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
   </si>
   <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:03:55</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:04:34</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,21 +94,21 @@
     <t>2016-01-25 04:02:19</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:03:55</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:04:06</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:04:52</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
   </si>
   <si>
@@ -107,12 +116,6 @@
   </si>
   <si>
     <t>2016-01-25 04:02:36</t>
-  </si>
-  <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:04:06</t>
   </si>
 </sst>
 </file>
@@ -266,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -318,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -353,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -379,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -402,27 +405,33 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -436,17 +445,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -476,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -517,7 +528,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -526,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -537,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -568,19 +579,25 @@
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -594,17 +611,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,19 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
+  </si>
+  <si>
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
-  </si>
-  <si>
-    <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +73,52 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:01:35</t>
+  </si>
+  <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:02:19</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:03:55</t>
+    <t>2016-01-25 04:05:37</t>
   </si>
   <si>
     <t>2016-01-25 04:04:34</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:01:35</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:02:19</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:01:45</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:02:36</t>
+  </si>
+  <si>
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:04:06</t>
+    <t>2016-01-25 04:05:47</t>
   </si>
   <si>
     <t>2016-01-25 04:04:52</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:01:45</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:02:36</t>
   </si>
 </sst>
 </file>
@@ -269,28 +272,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -321,31 +324,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +359,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +385,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -405,58 +408,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -487,31 +490,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -571,58 +574,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
   </si>
   <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:05:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:06:20</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,24 +94,21 @@
     <t>2016-01-25 04:02:19</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:05:37</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:04:34</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:05:47</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:06:37</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
   </si>
   <si>
@@ -110,15 +116,6 @@
   </si>
   <si>
     <t>2016-01-25 04:02:36</t>
-  </si>
-  <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:05:47</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:04:52</t>
   </si>
 </sst>
 </file>
@@ -272,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -324,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -359,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -385,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -408,58 +405,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -490,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -525,22 +522,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -551,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -574,58 +571,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,19 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
+  </si>
+  <si>
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
-  </si>
-  <si>
-    <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +73,52 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:01:35</t>
+  </si>
+  <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:02:19</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:05:37</t>
+    <t>2016-01-25 04:07:19</t>
   </si>
   <si>
     <t>2016-01-25 04:06:20</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:01:35</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:02:19</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:01:45</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:02:36</t>
+  </si>
+  <si>
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:05:47</t>
+    <t>2016-01-25 04:07:30</t>
   </si>
   <si>
     <t>2016-01-25 04:06:37</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:01:45</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:02:36</t>
   </si>
 </sst>
 </file>
@@ -269,28 +272,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -321,31 +324,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +359,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +385,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -405,58 +408,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -487,31 +490,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -571,58 +574,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
   </si>
   <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:07:19</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:08:05</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,24 +94,21 @@
     <t>2016-01-25 04:02:19</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:07:19</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:06:20</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:07:30</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:08:23</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
   </si>
   <si>
@@ -110,15 +116,6 @@
   </si>
   <si>
     <t>2016-01-25 04:02:36</t>
-  </si>
-  <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:07:30</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:06:37</t>
   </si>
 </sst>
 </file>
@@ -272,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -324,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -359,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -385,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -408,58 +405,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -490,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -525,22 +522,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -551,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -574,58 +571,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
     <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,13 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md</t>
-  </si>
-  <si>
-    <t>ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md</t>
+    <t>714ecca4-932a-4e0c-b868-8c49024e8a03.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +67,31 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:07:19</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:08:05</t>
+    <t>714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:09:11</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:01:35</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:02:19</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:07:30</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:08:23</t>
-  </si>
-  <si>
-    <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:01:45</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:02:36</t>
+    <t>714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:09:22</t>
+  </si>
+  <si>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -269,29 +245,17 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -302,7 +266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -321,31 +285,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +320,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +340,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -405,59 +357,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +386,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +405,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +440,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +460,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -571,59 +477,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>714ecca4-932a-4e0c-b868-8c49024e8a03.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>fc918ef0-aef6-4038-ba43-4515b638967f.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-25 04:09:11</t>
   </si>
   <si>
+    <t>2016-01-25 04:09:57</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-25 04:09:22</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:10:17</t>
   </si>
   <si>
     <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId2"/>
     <hyperlink ref="C2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId2"/>
     <hyperlink ref="C2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,15 @@
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
   </si>
   <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,6 +91,15 @@
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
   </si>
   <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:44</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -92,6 +110,15 @@
   </si>
   <si>
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:56</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -196,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -251,11 +278,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="A3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A4" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -266,7 +317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -285,31 +336,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -320,16 +371,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -340,16 +391,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -359,14 +410,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +466,11 @@
     <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId4"/>
     <hyperlink ref="C3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -386,7 +481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,31 +500,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -440,16 +535,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -460,16 +555,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -479,14 +574,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +630,11 @@
     <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId4"/>
     <hyperlink ref="C3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -94,12 +94,15 @@
     <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 10:09:27</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 10:08:44</t>
   </si>
   <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -115,10 +118,13 @@
     <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 10:09:39</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 10:08:56</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -457,7 +463,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>22</v>
@@ -555,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -575,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -595,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -31,6 +31,9 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
+  </si>
+  <si>
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -88,6 +88,12 @@
     <t>Include</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:44</t>
+  </si>
+  <si>
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
   </si>
   <si>
@@ -97,12 +103,6 @@
     <t>2016-03-04 10:09:27</t>
   </si>
   <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:44</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -112,6 +112,12 @@
     <t>2016-03-04 10:07:12</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:56</t>
+  </si>
+  <si>
     <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
   </si>
   <si>
@@ -119,12 +125,6 @@
   </si>
   <si>
     <t>2016-03-04 10:09:39</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:56</t>
   </si>
 </sst>
 </file>
@@ -278,21 +278,21 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -309,9 +309,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId5"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -400,7 +400,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -470,12 +470,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -564,7 +564,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -634,12 +634,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -109,7 +109,7 @@
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:11:21</t>
+    <t>2016-03-04 10:12:09</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -139,7 +139,7 @@
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:11:33</t>
+    <t>2016-03-04 10:12:21</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,6 +91,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:12:09</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:12:52</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
   </si>
   <si>
@@ -106,12 +115,6 @@
     <t>2016-03-04 10:09:27</t>
   </si>
   <si>
-    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:12:09</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -121,6 +124,15 @@
     <t>2016-03-04 10:07:12</t>
   </si>
   <si>
+    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:12:21</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:13:12</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
   </si>
   <si>
@@ -134,12 +146,6 @@
   </si>
   <si>
     <t>2016-03-04 10:09:39</t>
-  </si>
-  <si>
-    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:12:21</t>
   </si>
 </sst>
 </file>
@@ -304,21 +310,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -335,10 +341,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
     <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -429,8 +435,14 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>24</v>
@@ -444,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>23</v>
@@ -461,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>23</v>
@@ -478,16 +490,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>23</v>
@@ -510,22 +522,24 @@
         <v>23</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
+    <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>23</v>
@@ -610,13 +624,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>24</v>
@@ -630,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>23</v>
@@ -647,13 +667,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>23</v>
@@ -664,16 +684,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>23</v>
@@ -696,22 +716,24 @@
         <v>23</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
+    <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -115,6 +118,12 @@
     <t>2016-03-04 10:09:27</t>
   </si>
   <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:14:36</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -146,6 +155,12 @@
   </si>
   <si>
     <t>2016-03-04 10:09:39</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:14:49</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -332,10 +347,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -345,7 +371,8 @@
     <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
     <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId5"/>
     <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
+    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId7"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -356,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -375,31 +402,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -410,16 +437,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +457,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -456,16 +483,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +503,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -496,16 +523,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -513,16 +540,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +586,9 @@
     <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
     <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -550,7 +599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,31 +618,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -604,16 +653,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -624,22 +673,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -650,16 +699,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -670,16 +719,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -690,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -707,16 +756,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +802,9 @@
     <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
     <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -34,6 +34,9 @@
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
   </si>
   <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,6 +103,12 @@
     <t>2016-03-04 10:12:52</t>
   </si>
   <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:14:36</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
   </si>
   <si>
@@ -118,12 +124,6 @@
     <t>2016-03-04 10:09:27</t>
   </si>
   <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:14:36</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -142,6 +142,12 @@
     <t>2016-03-04 10:13:12</t>
   </si>
   <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:14:49</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
   </si>
   <si>
@@ -155,12 +161,6 @@
   </si>
   <si>
     <t>2016-03-04 10:09:39</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:14:49</t>
   </si>
 </sst>
 </file>
@@ -336,21 +336,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -368,10 +368,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
@@ -506,7 +506,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>24</v>
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>24</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -580,14 +580,14 @@
     <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
     <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
@@ -722,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>24</v>
@@ -736,13 +736,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>24</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -796,14 +796,14 @@
     <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
     <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -34,21 +34,21 @@
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,25 +103,25 @@
     <t>2016-03-04 10:12:52</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:44</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:09:27</t>
+  </si>
+  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:14:36</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:44</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:09:27</t>
+    <t>2016-03-04 10:16:17</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -142,25 +142,25 @@
     <t>2016-03-04 10:13:12</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:56</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:09:39</t>
+  </si>
+  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:14:49</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:56</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:09:39</t>
+    <t>2016-03-04 10:16:29</t>
   </si>
 </sst>
 </file>
@@ -336,21 +336,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -368,10 +368,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
     <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
@@ -506,7 +506,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>24</v>
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>24</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -580,14 +580,14 @@
     <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
     <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
@@ -722,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>24</v>
@@ -736,13 +736,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>24</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -796,14 +796,14 @@
     <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
     <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -121,7 +121,7 @@
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:16:17</t>
+    <t>2016-03-04 10:16:59</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -160,7 +160,7 @@
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:16:29</t>
+    <t>2016-03-04 10:17:12</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.md</t>
+  </si>
+  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
@@ -118,6 +121,12 @@
     <t>2016-03-04 10:09:27</t>
   </si>
   <si>
+    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:17:48</t>
+  </si>
+  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +164,12 @@
   </si>
   <si>
     <t>2016-03-04 10:09:39</t>
+  </si>
+  <si>
+    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:18:01</t>
   </si>
   <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
@@ -265,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,10 +373,21 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -371,8 +397,9 @@
     <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
     <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId5"/>
     <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId7"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
+    <hyperlink ref="A7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -383,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,31 +429,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -437,16 +464,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -457,22 +484,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +510,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -543,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -560,16 +587,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -586,9 +633,11 @@
     <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
     <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,7 +648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,31 +667,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -653,16 +702,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -673,22 +722,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -699,16 +748,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -719,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -739,16 +788,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -759,16 +808,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -776,16 +825,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -802,9 +871,11 @@
     <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
     <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.md</t>
   </si>
   <si>
@@ -46,9 +52,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.md</t>
-  </si>
-  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
@@ -85,6 +88,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:17:48</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:18:30</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf</t>
   </si>
   <si>
@@ -121,12 +133,6 @@
     <t>2016-03-04 10:09:27</t>
   </si>
   <si>
-    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:17:48</t>
-  </si>
-  <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,6 +142,15 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:18:01</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:18:50</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf</t>
   </si>
   <si>
@@ -164,12 +179,6 @@
   </si>
   <si>
     <t>2016-03-04 10:09:39</t>
-  </si>
-  <si>
-    <t>2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:18:01</t>
   </si>
   <si>
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
@@ -318,43 +327,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -362,42 +371,42 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
     <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
     <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
@@ -429,31 +438,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -464,16 +473,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -481,85 +496,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -567,77 +582,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
-    <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
+    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -667,31 +684,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -702,16 +719,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -719,85 +742,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -805,77 +828,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="E3" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId6"/>
-    <hyperlink ref="F3" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
+    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -139,6 +142,12 @@
     <t>2016-03-04 10:16:59</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:19:55</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -185,6 +194,12 @@
   </si>
   <si>
     <t>2016-03-04 10:17:12</t>
+  </si>
+  <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:20:10</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,10 +408,21 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +434,8 @@
     <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
     <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
     <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId9"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,7 +446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,31 +465,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -473,22 +500,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +526,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -519,22 +546,22 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +572,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -565,16 +592,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -605,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +649,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +701,9 @@
     <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
     <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -665,7 +714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,31 +733,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -719,22 +768,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -745,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -765,22 +814,22 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -791,16 +840,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -811,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -831,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -851,16 +900,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -868,16 +917,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +969,9 @@
     <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
     <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -40,6 +40,9 @@
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -121,6 +121,12 @@
     <t>2016-03-04 10:12:52</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:19:55</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,12 +148,6 @@
     <t>2016-03-04 10:16:59</t>
   </si>
   <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:19:55</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -175,6 +175,12 @@
     <t>2016-03-04 10:13:12</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:20:10</t>
+  </si>
+  <si>
     <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
   </si>
   <si>
@@ -194,12 +200,6 @@
   </si>
   <si>
     <t>2016-03-04 10:17:12</t>
-  </si>
-  <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:20:10</t>
   </si>
 </sst>
 </file>
@@ -386,21 +386,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -430,11 +430,11 @@
     <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
     <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId3"/>
     <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId9"/>
+    <hyperlink ref="A5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -595,7 +595,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>31</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -693,16 +693,16 @@
     <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
     <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>31</v>
@@ -877,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -961,16 +961,16 @@
     <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
     <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -40,24 +40,24 @@
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
+  </si>
+  <si>
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
   </si>
   <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -121,31 +121,31 @@
     <t>2016-03-04 10:12:52</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:44</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:09:27</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:16:59</t>
+  </si>
+  <si>
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:19:55</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:44</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:09:27</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:16:59</t>
+    <t>2016-03-04 10:21:22</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -175,31 +175,31 @@
     <t>2016-03-04 10:13:12</t>
   </si>
   <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:56</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:09:39</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:17:12</t>
+  </si>
+  <si>
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:20:10</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:56</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:09:39</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:17:12</t>
+    <t>2016-03-04 10:21:35</t>
   </si>
 </sst>
 </file>
@@ -386,21 +386,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -430,11 +430,11 @@
     <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
     <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId3"/>
     <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId9"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -595,7 +595,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>31</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -693,16 +693,16 @@
     <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
     <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>31</v>
@@ -877,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -961,16 +961,16 @@
     <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
     <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,6 +103,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:21:22</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:22:16</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,12 +151,6 @@
     <t>2016-03-04 10:16:59</t>
   </si>
   <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:21:22</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -160,6 +163,15 @@
     <t>2016-03-04 10:18:50</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:21:35</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:22:41</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf</t>
   </si>
   <si>
@@ -194,12 +206,6 @@
   </si>
   <si>
     <t>2016-03-04 10:17:12</t>
-  </si>
-  <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:21:35</t>
   </si>
 </sst>
 </file>
@@ -342,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -364,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -375,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -386,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -428,13 +434,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -523,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -531,6 +537,12 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -540,22 +552,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>34</v>
@@ -569,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -577,8 +583,14 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -589,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -609,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -626,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -649,16 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -672,13 +684,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -687,23 +699,25 @@
     <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
-    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="E5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId14"/>
+    <hyperlink ref="F5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -768,19 +782,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>28</v>
@@ -791,16 +805,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -808,25 +828,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -837,16 +851,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -857,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -877,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -894,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -917,16 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -940,13 +960,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -955,23 +975,25 @@
     <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
-    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="E5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId14"/>
+    <hyperlink ref="F5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -31,33 +31,33 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>199a1f31-4b40-43bb-923a-18397fa6ca04.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
+  </si>
+  <si>
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
   </si>
   <si>
-    <t>199a1f31-4b40-43bb-923a-18397fa6ca04.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>1a074949-8159-4044-af6e-13f93f8e43e3.md</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.md</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.md</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,54 +103,54 @@
     <t>Include</t>
   </si>
   <si>
+    <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:06:41</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:12:09</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:12:52</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:44</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:09:27</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:16:59</t>
+  </si>
+  <si>
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:21:22</t>
+    <t>2016-03-04 10:23:31</t>
   </si>
   <si>
     <t>2016-03-04 10:22:16</t>
   </si>
   <si>
-    <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:06:41</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:12:09</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:12:52</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:44</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:09:27</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:16:59</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -163,49 +163,49 @@
     <t>2016-03-04 10:18:50</t>
   </si>
   <si>
+    <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:07:12</t>
+  </si>
+  <si>
+    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:12:21</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:13:12</t>
+  </si>
+  <si>
+    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:08:56</t>
+  </si>
+  <si>
+    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:09:39</t>
+  </si>
+  <si>
+    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:17:12</t>
+  </si>
+  <si>
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:21:35</t>
+    <t>2016-03-04 10:23:46</t>
   </si>
   <si>
     <t>2016-03-04 10:22:41</t>
-  </si>
-  <si>
-    <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:07:12</t>
-  </si>
-  <si>
-    <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:12:21</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:13:12</t>
-  </si>
-  <si>
-    <t>bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:08:56</t>
-  </si>
-  <si>
-    <t>e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:09:39</t>
-  </si>
-  <si>
-    <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:17:12</t>
   </si>
 </sst>
 </file>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -434,13 +434,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -537,12 +537,6 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -552,16 +546,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>34</v>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -583,14 +583,8 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -601,16 +595,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -621,16 +615,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -638,19 +632,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -661,16 +655,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -699,24 +699,24 @@
     <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="E5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId14"/>
-    <hyperlink ref="F5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
+    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="E9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId22"/>
+    <hyperlink ref="F9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -813,14 +813,8 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -828,19 +822,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
@@ -859,14 +859,8 @@
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -877,16 +871,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -897,16 +891,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -914,19 +908,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -937,16 +931,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -975,24 +975,24 @@
     <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="E5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId14"/>
-    <hyperlink ref="F5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
+    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="E9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId22"/>
+    <hyperlink ref="F9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -31,6 +31,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>27a3f539-08b5-4bbe-9811-281f0ccb21ed.md</t>
   </si>
   <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,6 +103,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:23:31</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:25:01</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,15 +151,6 @@
     <t>2016-03-04 10:16:59</t>
   </si>
   <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:23:31</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:22:16</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -163,6 +163,15 @@
     <t>2016-03-04 10:18:50</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:23:46</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:25:29</t>
+  </si>
+  <si>
     <t>199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf</t>
   </si>
   <si>
@@ -197,15 +206,6 @@
   </si>
   <si>
     <t>2016-03-04 10:17:12</t>
-  </si>
-  <si>
-    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:23:46</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:22:41</t>
   </si>
 </sst>
 </file>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -434,13 +434,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -537,6 +537,12 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -546,22 +552,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>34</v>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -583,8 +583,14 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -595,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -615,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -632,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -655,22 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -699,24 +699,24 @@
     <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
-    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="E9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId22"/>
-    <hyperlink ref="F9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="E5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId14"/>
+    <hyperlink ref="F5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -813,8 +813,14 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -822,25 +828,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
@@ -859,8 +859,14 @@
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -871,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -891,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -908,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -931,22 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -975,24 +975,24 @@
     <hyperlink ref="C2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="E4" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId10"/>
-    <hyperlink ref="F4" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="E9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId22"/>
-    <hyperlink ref="F9" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="199a1f31-4b40-43bb-923a-18397fa6ca04.9809858e68fcb9f6dd2bac79ef216efc8fdd31ee.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="E5" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId14"/>
+    <hyperlink ref="F5" display="1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="bea0c538-ddcb-4d77-977d-c7666a7b139c.61e8ee26ecc65f85dadc73a0d3c1f3f6c3ec4f66.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="e74c1a4c-b419-43a7-8bd7-7f98d9726133.c2bc1a05f8e55b2535db8e200e39f576949ee6dd.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="0034157f-dd4d-417a-9df6-110b159bec4f.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="0034157f-dd4d-417a-9df6-110b159bec4f.e05f1b9a6487db1a122b3f7a99a8da13ba3f092c.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="27a3f539-08b5-4bbe-9811-281f0ccb21ed.87a85293aeafa20d19b587592fc53056c03f5bcf.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>b.md</t>
@@ -73,12 +73,15 @@
     <t>2016-03-04 10:27:13</t>
   </si>
   <si>
+    <t>2016-03-04 10:28:22</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-03-04 10:27:37</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:28:44</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t>Include</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:29:22</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
   </si>
   <si>
     <t>2016-03-04 10:28:44</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:29:35</t>
   </si>
 </sst>
 </file>
@@ -234,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -285,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -320,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -343,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -388,7 +403,7 @@
     <hyperlink ref="E2" display="a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
@@ -421,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -456,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -479,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +539,7 @@
     <hyperlink ref="E2" display="a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -34,7 +34,7 @@
     <t>b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.md</t>
@@ -73,15 +73,18 @@
     <t>2016-03-04 10:33:57</t>
   </si>
   <si>
+    <t>2016-03-04 10:35:26</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-03-04 10:34:24</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:35:56</t>
   </si>
   <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:33:57</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:35:26</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:33:57</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:35:26</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
+    <t>2016-03-04 10:37:23</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:34:24</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:35:56</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:34:24</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:35:56</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
+    <t>2016-03-04 10:37:38</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:37:23</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:38:39</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-03-04 10:35:26</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:37:23</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:37:38</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:39:16</t>
+  </si>
+  <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-03-04 10:35:56</t>
-  </si>
-  <si>
-    <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:37:38</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:37:23</t>
+    <t>2016-03-04 10:40:28</t>
   </si>
   <si>
     <t>2016-03-04 10:38:39</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:33:57</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:35:26</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:37:38</t>
+    <t>2016-03-04 10:40:46</t>
   </si>
   <si>
     <t>2016-03-04 10:39:16</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:34:24</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:35:56</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-03-04 10:40:28</t>
   </si>
   <si>
-    <t>2016-03-04 10:38:39</t>
+    <t>2016-03-04 10:41:56</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-03-04 10:40:46</t>
   </si>
   <si>
-    <t>2016-03-04 10:39:16</t>
+    <t>2016-03-04 10:42:22</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>0006b183-d486-40b5-8279-f8a565620d17.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>0006b183-d486-40b5-8279-f8a565620d17.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>db536e6e-06e0-47fa-bb88-44e528769abd.md</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:43:46</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:45:03</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
@@ -82,21 +91,21 @@
     <t>2016-03-04 10:41:56</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:43:46</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:44:14</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:45:41</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
@@ -104,12 +113,6 @@
   </si>
   <si>
     <t>2016-03-04 10:42:22</t>
-  </si>
-  <si>
-    <t>0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:44:14</t>
   </si>
 </sst>
 </file>
@@ -252,38 +255,38 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId3"/>
     <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
@@ -315,31 +318,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -350,22 +353,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -373,47 +376,59 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -427,15 +442,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -465,31 +484,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -515,7 +534,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -531,39 +550,51 @@
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -577,15 +608,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -100,7 +100,7 @@
     <t>01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:46:49</t>
+    <t>2016-03-04 10:47:50</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +130,7 @@
     <t>01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:47:07</t>
+    <t>2016-03-04 10:48:06</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -31,18 +31,15 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>01eab44c-6748-47c3-88fc-beb8c39039f7.md</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
     <t>db536e6e-06e0-47fa-bb88-44e528769abd.md</t>
   </si>
   <si>
-    <t>01eab44c-6748-47c3-88fc-beb8c39039f7.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -88,6 +85,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:47:50</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:50:38</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
@@ -97,12 +103,6 @@
     <t>2016-03-04 10:41:56</t>
   </si>
   <si>
-    <t>01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:47:50</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -118,6 +118,15 @@
     <t>2016-03-04 10:45:41</t>
   </si>
   <si>
+    <t>01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:48:06</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:51:08</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
@@ -125,12 +134,6 @@
   </si>
   <si>
     <t>2016-03-04 10:42:22</t>
-  </si>
-  <si>
-    <t>01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:48:06</t>
   </si>
 </sst>
 </file>
@@ -295,29 +298,29 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId5"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -348,31 +351,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -383,22 +386,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -409,22 +412,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -435,22 +438,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -458,27 +461,33 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -496,17 +505,19 @@
     <hyperlink ref="C2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId4"/>
     <hyperlink ref="F2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -536,31 +547,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -586,7 +597,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -623,22 +634,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -646,27 +657,33 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -684,17 +701,19 @@
     <hyperlink ref="C2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId4"/>
     <hyperlink ref="F2" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -112,7 +112,7 @@
     <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:52:16</t>
+    <t>2016-03-04 10:53:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -151,7 +151,7 @@
     <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:52:39</t>
+    <t>2016-03-04 10:53:44</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -34,18 +34,15 @@
     <t>01eab44c-6748-47c3-88fc-beb8c39039f7.md</t>
   </si>
   <si>
+    <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.md</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.md</t>
   </si>
   <si>
     <t>db536e6e-06e0-47fa-bb88-44e528769abd.md</t>
   </si>
   <si>
-    <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
     <t>2016-03-04 10:50:38</t>
   </si>
   <si>
+    <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:53:22</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:54:34</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
@@ -109,12 +115,6 @@
     <t>2016-03-04 10:41:56</t>
   </si>
   <si>
-    <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:53:22</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -139,6 +139,15 @@
     <t>2016-03-04 10:51:08</t>
   </si>
   <si>
+    <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:53:44</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:55:06</t>
+  </si>
+  <si>
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
@@ -146,12 +155,6 @@
   </si>
   <si>
     <t>2016-03-04 10:42:22</t>
-  </si>
-  <si>
-    <t>062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:53:44</t>
   </si>
 </sst>
 </file>
@@ -327,30 +330,30 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId2"/>
     <hyperlink ref="A3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId6"/>
     <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -381,31 +384,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -416,22 +419,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -442,22 +445,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -468,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +497,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -517,27 +520,33 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -559,17 +568,19 @@
     <hyperlink ref="C3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId8"/>
     <hyperlink ref="F3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,31 +610,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -649,7 +660,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -675,7 +686,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +712,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -712,22 +723,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -735,27 +746,33 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -777,17 +794,19 @@
     <hyperlink ref="C3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.md" r:id="rId8"/>
     <hyperlink ref="F3" display="01eab44c-6748-47c3-88fc-beb8c39039f7.216616e88f5bf559688636269e9f35a4840135a7.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="062f0c8c-44d4-490e-b968-e13ec1f1bf98.2f1b868441c122be171be2557e0fbfb9f648bbf5.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="53c085fd-5667-423f-8a02-49549d104e8a.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="db536e6e-06e0-47fa-bb88-44e528769abd.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="0006b183-d486-40b5-8279-f8a565620d17.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="0006b183-d486-40b5-8279-f8a565620d17.eab9c7daa307ce03d3328e1e76e9df5cfe434d8a.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -46,7 +46,7 @@
     <t>4f802183-a82b-4d95-9b8b-108bb9309235.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -25,7 +25,7 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>60aad5fe-0fa1-48ea-9bbe-1c255fe73260.md</t>
+    <t>0061f551-f573-447e-9fa0-c4403e965861.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
@@ -64,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>60aad5fe-0fa1-48ea-9bbe-1c255fe73260.c184118625916aaa0fc308aee916c53ea0a42ba7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:01:05</t>
+    <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:03:05</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>60aad5fe-0fa1-48ea-9bbe-1c255fe73260.c184118625916aaa0fc308aee916c53ea0a42ba7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:01:55</t>
+    <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:03:20</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="60aad5fe-0fa1-48ea-9bbe-1c255fe73260.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="0061f551-f573-447e-9fa0-c4403e965861.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -330,8 +330,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="60aad5fe-0fa1-48ea-9bbe-1c255fe73260.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="60aad5fe-0fa1-48ea-9bbe-1c255fe73260.c184118625916aaa0fc308aee916c53ea0a42ba7.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A2" display="0061f551-f573-447e-9fa0-c4403e965861.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -428,8 +428,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="60aad5fe-0fa1-48ea-9bbe-1c255fe73260.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="60aad5fe-0fa1-48ea-9bbe-1c255fe73260.c184118625916aaa0fc308aee916c53ea0a42ba7.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A2" display="0061f551-f573-447e-9fa0-c4403e965861.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:03:05</t>
+    <t>2016-03-04 11:04:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:03:20</t>
+    <t>2016-03-04 11:04:26</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:04:11</t>
+    <t>2016-03-04 11:05:19</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:04:26</t>
+    <t>2016-03-04 11:05:34</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>0061f551-f573-447e-9fa0-c4403e965861.md</t>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +67,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:05:19</t>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:06:43</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +82,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:05:34</t>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:07:01</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -225,16 +228,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0061f551-f573-447e-9fa0-c4403e965861.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +279,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +314,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -316,23 +331,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0061f551-f573-447e-9fa0-c4403e965861.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +380,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +399,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +434,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -414,23 +451,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0061f551-f573-447e-9fa0-c4403e965861.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="0061f551-f573-447e-9fa0-c4403e965861.3bff11b70688e4a43285c2d0aa69fb00981ef098.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
@@ -73,12 +73,15 @@
     <t>2016-03-04 11:06:43</t>
   </si>
   <si>
+    <t>2016-03-04 11:07:48</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-03-04 11:07:01</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:08:13</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId2"/>
     <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId2"/>
     <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
   </si>
   <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:10:09</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:11:16</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,21 +94,21 @@
     <t>2016-03-04 11:07:48</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:10:09</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:10:24</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:11:44</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
   </si>
   <si>
@@ -107,12 +116,6 @@
   </si>
   <si>
     <t>2016-03-04 11:08:13</t>
-  </si>
-  <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:10:24</t>
   </si>
 </sst>
 </file>
@@ -266,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -318,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -353,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -379,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -402,27 +405,33 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -436,17 +445,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -476,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -517,7 +528,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -526,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -537,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -568,19 +579,25 @@
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -594,17 +611,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,19 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
+  </si>
+  <si>
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
-  </si>
-  <si>
-    <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +73,52 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:06:43</t>
+  </si>
+  <si>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:07:48</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:10:09</t>
+    <t>2016-03-04 11:12:45</t>
   </si>
   <si>
     <t>2016-03-04 11:11:16</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:06:43</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:07:48</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:07:01</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:08:13</t>
+  </si>
+  <si>
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:10:24</t>
+    <t>2016-03-04 11:13:01</t>
   </si>
   <si>
     <t>2016-03-04 11:11:44</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:07:01</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:08:13</t>
   </si>
 </sst>
 </file>
@@ -269,28 +272,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -321,31 +324,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +359,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +385,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -405,58 +408,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -487,31 +490,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -571,58 +574,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
   </si>
   <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:12:45</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:13:49</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,24 +94,21 @@
     <t>2016-03-04 11:07:48</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:12:45</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:11:16</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:13:01</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:14:23</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
   </si>
   <si>
@@ -110,15 +116,6 @@
   </si>
   <si>
     <t>2016-03-04 11:08:13</t>
-  </si>
-  <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:13:01</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:11:44</t>
   </si>
 </sst>
 </file>
@@ -272,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -324,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -359,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -385,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -408,58 +405,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -490,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -525,22 +522,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -551,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -574,58 +571,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,19 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
+  </si>
+  <si>
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
-  </si>
-  <si>
-    <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +73,52 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:06:43</t>
+  </si>
+  <si>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:07:48</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:12:45</t>
+    <t>2016-03-04 11:15:32</t>
   </si>
   <si>
     <t>2016-03-04 11:13:49</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:06:43</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:07:48</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:07:01</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:08:13</t>
+  </si>
+  <si>
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:13:01</t>
+    <t>2016-03-04 11:15:57</t>
   </si>
   <si>
     <t>2016-03-04 11:14:23</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:07:01</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:08:13</t>
   </si>
 </sst>
 </file>
@@ -269,28 +272,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -321,31 +324,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +359,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +385,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -405,58 +408,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -487,31 +490,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -571,58 +574,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
   </si>
   <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:15:32</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:16:55</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,24 +94,21 @@
     <t>2016-03-04 11:07:48</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:15:32</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:13:49</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:15:57</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:17:18</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
   </si>
   <si>
@@ -110,15 +116,6 @@
   </si>
   <si>
     <t>2016-03-04 11:08:13</t>
-  </si>
-  <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:15:57</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:14:23</t>
   </si>
 </sst>
 </file>
@@ -272,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -324,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -359,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -385,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -408,58 +405,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -490,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -525,22 +522,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -551,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -574,58 +571,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
     <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
     <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,13 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff30bae099-e70f-4860-adae-fa1bd61ee460.md</t>
-  </si>
-  <si>
-    <t>ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md</t>
+    <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +67,31 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:15:32</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:16:55</t>
+    <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:18:22</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:06:43</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.md</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:07:48</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:15:57</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:17:18</t>
-  </si>
-  <si>
-    <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:07:01</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:08:13</t>
+    <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:18:45</t>
+  </si>
+  <si>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -269,29 +245,17 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId4"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -302,7 +266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -321,31 +285,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +320,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +340,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -405,59 +357,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +386,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +405,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +440,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +460,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -571,59 +477,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="617b5400-e27b-4269-bf2c-0532877aa549.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md</t>
@@ -73,15 +73,18 @@
     <t>2016-03-04 11:18:22</t>
   </si>
   <si>
+    <t>2016-03-04 11:19:35</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-03-04 11:18:45</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:19:57</t>
   </si>
   <si>
     <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId2"/>
     <hyperlink ref="C2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId2"/>
     <hyperlink ref="C2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
@@ -73,15 +73,18 @@
     <t>2016-03-04 11:22:38</t>
   </si>
   <si>
+    <t>2016-03-04 11:23:55</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-03-04 11:22:57</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:24:18</t>
   </si>
   <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId2"/>
     <hyperlink ref="C2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId2"/>
     <hyperlink ref="C2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:22:38</t>
+    <t>2016-03-04 11:25:20</t>
   </si>
   <si>
     <t>2016-03-04 11:23:55</t>
@@ -91,7 +94,7 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:22:57</t>
+    <t>2016-03-04 11:25:33</t>
   </si>
   <si>
     <t>2016-03-04 11:24:18</t>
@@ -240,21 +243,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -291,31 +294,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +329,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,42 +352,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -427,31 +430,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +465,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,42 +488,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -76,7 +73,7 @@
     <t>2016-03-04 11:25:20</t>
   </si>
   <si>
-    <t>2016-03-04 11:23:55</t>
+    <t>2016-03-04 11:26:15</t>
   </si>
   <si>
     <t>Include</t>
@@ -97,7 +94,7 @@
     <t>2016-03-04 11:25:33</t>
   </si>
   <si>
-    <t>2016-03-04 11:24:18</t>
+    <t>2016-03-04 11:26:41</t>
   </si>
   <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
@@ -243,21 +240,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -294,31 +291,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -329,22 +326,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -352,42 +349,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -430,31 +427,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -465,22 +462,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -488,42 +485,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -79,7 +79,7 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:27:49</t>
+    <t>2016-03-04 11:28:54</t>
   </si>
   <si>
     <t>2016-03-04 11:26:15</t>
@@ -106,7 +106,7 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:28:04</t>
+    <t>2016-03-04 11:29:08</t>
   </si>
   <si>
     <t>2016-03-04 11:26:41</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -37,13 +37,16 @@
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.md</t>
   </si>
   <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
   </si>
   <si>
     <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
@@ -312,32 +315,32 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -378,31 +381,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -413,22 +416,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +442,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -465,16 +468,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -485,16 +488,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -502,56 +505,56 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -602,31 +605,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -637,22 +640,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -663,22 +666,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -689,16 +692,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -709,16 +712,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -726,56 +729,56 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -43,12 +43,12 @@
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
   </si>
   <si>
@@ -88,21 +88,24 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 11:32:21</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:26:15</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 11:29:59</t>
   </si>
   <si>
-    <t>2016-03-04 11:26:15</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -121,16 +124,19 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 11:32:36</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:26:41</t>
+  </si>
+  <si>
+    <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 11:30:19</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:26:41</t>
-  </si>
-  <si>
-    <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
-  </si>
-  <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
   </si>
   <si>
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
@@ -304,21 +310,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -326,10 +332,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -471,10 +477,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
@@ -485,16 +491,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>26</v>
@@ -502,19 +508,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>26</v>
@@ -525,16 +531,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -548,13 +554,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -640,19 +646,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>26</v>
@@ -666,19 +672,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
@@ -692,13 +698,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
@@ -709,16 +715,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>26</v>
@@ -726,19 +732,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>26</v>
@@ -749,16 +755,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -772,13 +778,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,12 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
   </si>
   <si>
+    <t>2b1e84f5-4e21-4118-b585-18ce02902122.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.md</t>
   </si>
   <si>
@@ -46,9 +52,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2b1e84f5-4e21-4118-b585-18ce02902122.md</t>
-  </si>
-  <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
   </si>
   <si>
@@ -103,21 +106,21 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-03-04 11:29:59</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
   </si>
   <si>
+    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
+  </si>
+  <si>
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
   </si>
   <si>
@@ -146,9 +152,6 @@
   </si>
   <si>
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
   </si>
   <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf</t>
@@ -330,52 +333,52 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId2"/>
     <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId6"/>
     <hyperlink ref="A7" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId7"/>
     <hyperlink ref="A8" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId8"/>
     <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
@@ -408,31 +411,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -443,22 +446,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -469,22 +472,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -495,16 +498,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +521,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -532,67 +535,67 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -601,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -614,12 +617,12 @@
     <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId8"/>
     <hyperlink ref="F3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A7" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId16"/>
     <hyperlink ref="C7" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId18"/>
@@ -654,31 +657,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -689,22 +692,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -715,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -741,16 +744,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -764,13 +767,13 @@
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -778,67 +781,67 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -847,7 +850,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -860,12 +863,12 @@
     <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId8"/>
     <hyperlink ref="F3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A7" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId16"/>
     <hyperlink ref="C7" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId18"/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -115,6 +115,9 @@
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 11:36:47</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:37:01</t>
   </si>
   <si>
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
@@ -543,10 +549,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>30</v>
@@ -560,13 +566,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>30</v>
@@ -580,13 +586,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>30</v>
@@ -600,13 +606,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>30</v>
@@ -620,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>30</v>
@@ -640,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>30</v>
@@ -660,13 +666,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>30</v>
@@ -680,13 +686,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -778,19 +784,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>30</v>
@@ -804,19 +810,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>30</v>
@@ -830,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>30</v>
@@ -850,13 +856,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>30</v>
@@ -870,13 +876,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>30</v>
@@ -890,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>30</v>
@@ -910,13 +916,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>30</v>
@@ -930,13 +936,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>30</v>
@@ -950,13 +956,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>30</v>
@@ -970,13 +976,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -46,6 +46,12 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>88032866-4fa7-43a5-b857-035dcccd9216.md</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md</t>
+  </si>
+  <si>
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
   </si>
   <si>
@@ -61,15 +67,9 @@
     <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
   </si>
   <si>
-    <t>88032866-4fa7-43a5-b857-035dcccd9216.md</t>
-  </si>
-  <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.md</t>
   </si>
   <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -133,6 +133,12 @@
     <t>2016-03-04 11:29:59</t>
   </si>
   <si>
+    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
   </si>
   <si>
@@ -145,15 +151,9 @@
     <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf</t>
   </si>
   <si>
-    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf</t>
   </si>
   <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -181,6 +181,12 @@
     <t>2016-03-04 11:30:19</t>
   </si>
   <si>
+    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf</t>
+  </si>
+  <si>
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
   </si>
   <si>
@@ -193,13 +199,7 @@
     <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf</t>
   </si>
   <si>
-    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf</t>
-  </si>
-  <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -375,32 +375,32 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -419,10 +419,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -430,10 +430,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -441,10 +441,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -464,13 +464,13 @@
     <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId3"/>
     <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId4"/>
     <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId12"/>
+    <hyperlink ref="A6" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId12"/>
     <hyperlink ref="A13" display=".localization-config" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -685,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -705,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>43</v>
@@ -725,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>45</v>
@@ -791,20 +791,20 @@
     <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
     <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId22"/>
-    <hyperlink ref="C10" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId24"/>
-    <hyperlink ref="C11" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A12" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId26"/>
-    <hyperlink ref="C12" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A6" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId22"/>
+    <hyperlink ref="C10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId24"/>
+    <hyperlink ref="C11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId26"/>
+    <hyperlink ref="C12" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId27"/>
     <hyperlink ref="A13" display=".localization-config" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>57</v>
@@ -1019,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -1059,7 +1059,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -1125,20 +1125,20 @@
     <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
     <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId22"/>
-    <hyperlink ref="C10" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId24"/>
-    <hyperlink ref="C11" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A12" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId26"/>
-    <hyperlink ref="C12" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A6" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId22"/>
+    <hyperlink ref="C10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId24"/>
+    <hyperlink ref="C11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId26"/>
+    <hyperlink ref="C12" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId27"/>
     <hyperlink ref="A13" display=".localization-config" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -46,27 +46,27 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md</t>
+  </si>
+  <si>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
+  </si>
+  <si>
+    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md</t>
+  </si>
+  <si>
+    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
+  </si>
+  <si>
     <t>88032866-4fa7-43a5-b857-035dcccd9216.md</t>
   </si>
   <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
-  </si>
-  <si>
-    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md</t>
-  </si>
-  <si>
-    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
-  </si>
-  <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.md</t>
   </si>
   <si>
@@ -121,36 +121,39 @@
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 11:39:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:29:59</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 11:38:03</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:29:59</t>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf</t>
   </si>
   <si>
     <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf</t>
   </si>
   <si>
@@ -172,31 +175,34 @@
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 11:40:00</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:30:19</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 11:38:20</t>
   </si>
   <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:30:19</t>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf</t>
   </si>
   <si>
     <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf</t>
   </si>
   <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf</t>
@@ -386,21 +392,21 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +414,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -419,10 +425,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -430,10 +436,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -441,10 +447,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -464,12 +470,12 @@
     <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId3"/>
     <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId4"/>
     <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId11"/>
+    <hyperlink ref="A6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId11"/>
     <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId12"/>
     <hyperlink ref="A13" display=".localization-config" r:id="rId13"/>
   </hyperlinks>
@@ -631,7 +637,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>36</v>
@@ -645,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
@@ -662,13 +668,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -685,10 +691,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
@@ -705,10 +711,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
@@ -725,10 +731,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
@@ -745,10 +751,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
@@ -774,7 +780,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -791,18 +797,18 @@
     <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
     <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId22"/>
-    <hyperlink ref="C10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId24"/>
-    <hyperlink ref="C11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId22"/>
+    <hyperlink ref="C10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A11" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId24"/>
+    <hyperlink ref="C11" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId25"/>
     <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId26"/>
     <hyperlink ref="C12" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId27"/>
     <hyperlink ref="A13" display=".localization-config" r:id="rId28"/>
@@ -870,19 +876,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>32</v>
@@ -896,19 +902,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>32</v>
@@ -922,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>36</v>
@@ -942,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>36</v>
@@ -962,10 +968,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>36</v>
@@ -979,13 +985,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>36</v>
@@ -996,16 +1002,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>36</v>
@@ -1019,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>36</v>
@@ -1039,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>36</v>
@@ -1059,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>36</v>
@@ -1079,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>36</v>
@@ -1108,7 +1114,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1125,18 +1131,18 @@
     <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
     <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId22"/>
-    <hyperlink ref="C10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId24"/>
-    <hyperlink ref="C11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId22"/>
+    <hyperlink ref="C10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A11" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId24"/>
+    <hyperlink ref="C11" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId25"/>
     <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId26"/>
     <hyperlink ref="C12" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId27"/>
     <hyperlink ref="A13" display=".localization-config" r:id="rId28"/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -31,9 +31,15 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md</t>
+  </si>
+  <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
   </si>
   <si>
+    <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md</t>
+  </si>
+  <si>
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.md</t>
   </si>
   <si>
@@ -70,12 +76,6 @@
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.md</t>
   </si>
   <si>
-    <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md</t>
-  </si>
-  <si>
-    <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -121,15 +121,24 @@
     <t>Include</t>
   </si>
   <si>
+    <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:40:52</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:41:52</t>
+  </si>
+  <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
   </si>
   <si>
+    <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:40:52</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -163,12 +172,6 @@
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf</t>
   </si>
   <si>
-    <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -181,15 +184,24 @@
     <t>2016-03-04 11:26:41</t>
   </si>
   <si>
+    <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:41:09</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:42:15</t>
+  </si>
+  <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
   </si>
   <si>
+    <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf</t>
+  </si>
+  <si>
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:41:09</t>
-  </si>
-  <si>
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
   </si>
   <si>
@@ -218,12 +230,6 @@
   </si>
   <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -377,26 +383,26 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -407,35 +413,35 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -443,10 +449,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -454,10 +460,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -465,10 +471,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -476,10 +482,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -487,10 +493,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -507,18 +513,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId14"/>
+    <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId14"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
@@ -613,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -622,7 +628,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -633,16 +639,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -650,19 +662,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -670,19 +688,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -690,19 +708,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -710,19 +728,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -730,19 +748,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -753,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -773,16 +791,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -793,16 +811,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -813,16 +831,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -833,16 +851,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -856,13 +874,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -871,33 +889,37 @@
     <hyperlink ref="C2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId22"/>
-    <hyperlink ref="C10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId24"/>
-    <hyperlink ref="C11" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId26"/>
-    <hyperlink ref="C12" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A13" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId28"/>
-    <hyperlink ref="C13" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId30"/>
-    <hyperlink ref="C14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId32"/>
+    <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId20"/>
+    <hyperlink ref="C7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId26"/>
+    <hyperlink ref="C10" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId28"/>
+    <hyperlink ref="C11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId30"/>
+    <hyperlink ref="C12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId32"/>
+    <hyperlink ref="C13" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId34"/>
+    <hyperlink ref="C14" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId36"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -962,19 +984,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -988,19 +1010,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -1011,16 +1033,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -1028,19 +1056,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -1048,19 +1082,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -1068,19 +1102,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -1088,19 +1122,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -1108,19 +1142,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -1131,16 +1165,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -1151,16 +1185,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -1171,16 +1205,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -1191,16 +1225,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -1211,16 +1245,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -1234,13 +1268,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1249,33 +1283,37 @@
     <hyperlink ref="C2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId22"/>
-    <hyperlink ref="C10" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId24"/>
-    <hyperlink ref="C11" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A12" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId26"/>
-    <hyperlink ref="C12" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A13" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId28"/>
-    <hyperlink ref="C13" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId30"/>
-    <hyperlink ref="C14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId32"/>
+    <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId20"/>
+    <hyperlink ref="C7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId26"/>
+    <hyperlink ref="C10" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId28"/>
+    <hyperlink ref="C11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId30"/>
+    <hyperlink ref="C12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId32"/>
+    <hyperlink ref="C13" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId34"/>
+    <hyperlink ref="C14" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId36"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -37,45 +37,45 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
   </si>
   <si>
+    <t>2b1e84f5-4e21-4118-b585-18ce02902122.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md</t>
+  </si>
+  <si>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
+  </si>
+  <si>
+    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md</t>
+  </si>
+  <si>
+    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
+  </si>
+  <si>
+    <t>88032866-4fa7-43a5-b857-035dcccd9216.md</t>
+  </si>
+  <si>
+    <t>9979dab3-146f-4719-9a05-ce3444496cf8.md</t>
+  </si>
+  <si>
     <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md</t>
   </si>
   <si>
-    <t>2b1e84f5-4e21-4118-b585-18ce02902122.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
-  </si>
-  <si>
-    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md</t>
-  </si>
-  <si>
-    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.md</t>
-  </si>
-  <si>
-    <t>88032866-4fa7-43a5-b857-035dcccd9216.md</t>
-  </si>
-  <si>
-    <t>9979dab3-146f-4719-9a05-ce3444496cf8.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -133,45 +133,48 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:43:14</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:29:59</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:38:03</t>
+  </si>
+  <si>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:29:59</t>
-  </si>
-  <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:38:03</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -196,40 +199,43 @@
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
   </si>
   <si>
+    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:43:31</t>
+  </si>
+  <si>
+    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:30:19</t>
+  </si>
+  <si>
+    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:38:20</t>
+  </si>
+  <si>
+    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf</t>
+  </si>
+  <si>
+    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf</t>
+  </si>
+  <si>
     <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:30:19</t>
-  </si>
-  <si>
-    <t>c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:38:20</t>
-  </si>
-  <si>
-    <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf</t>
-  </si>
-  <si>
-    <t>88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -394,32 +400,32 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -427,21 +433,21 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -449,10 +455,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -460,10 +466,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -471,10 +477,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -482,10 +488,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -493,10 +499,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -515,16 +521,16 @@
     <hyperlink ref="A2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId2"/>
     <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId3"/>
     <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId14"/>
+    <hyperlink ref="A5" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId14"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
@@ -665,22 +671,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -688,16 +688,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>41</v>
@@ -708,16 +708,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>41</v>
@@ -731,13 +731,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>41</v>
@@ -748,16 +748,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>41</v>
@@ -771,13 +771,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>41</v>
@@ -791,13 +791,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>41</v>
@@ -811,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>41</v>
@@ -831,13 +831,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>41</v>
@@ -851,16 +851,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -880,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -897,28 +903,28 @@
     <hyperlink ref="C4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId12"/>
     <hyperlink ref="F4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId20"/>
-    <hyperlink ref="C7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId26"/>
-    <hyperlink ref="C10" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId28"/>
-    <hyperlink ref="C11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId30"/>
-    <hyperlink ref="C12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId32"/>
-    <hyperlink ref="C13" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId34"/>
-    <hyperlink ref="C14" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A5" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId24"/>
+    <hyperlink ref="C10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId26"/>
+    <hyperlink ref="C11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A12" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId28"/>
+    <hyperlink ref="C12" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A13" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId30"/>
+    <hyperlink ref="C13" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId32"/>
+    <hyperlink ref="C14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="E14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId34"/>
+    <hyperlink ref="F14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId35"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId36"/>
   </hyperlinks>
   <headerFooter/>
@@ -984,19 +990,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -1010,19 +1016,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -1036,19 +1042,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -1059,22 +1065,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -1082,16 +1082,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>41</v>
@@ -1102,16 +1102,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>41</v>
@@ -1125,13 +1125,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>41</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>41</v>
@@ -1165,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>41</v>
@@ -1185,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>41</v>
@@ -1205,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>41</v>
@@ -1225,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>41</v>
@@ -1245,16 +1245,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -1274,7 +1280,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1291,28 +1297,28 @@
     <hyperlink ref="C4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId12"/>
     <hyperlink ref="F4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId20"/>
-    <hyperlink ref="C7" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId26"/>
-    <hyperlink ref="C10" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId28"/>
-    <hyperlink ref="C11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId30"/>
-    <hyperlink ref="C12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId32"/>
-    <hyperlink ref="C13" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId34"/>
-    <hyperlink ref="C14" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A5" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId24"/>
+    <hyperlink ref="C10" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId26"/>
+    <hyperlink ref="C11" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A12" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId28"/>
+    <hyperlink ref="C12" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A13" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId30"/>
+    <hyperlink ref="C13" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId32"/>
+    <hyperlink ref="C14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="E14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId34"/>
+    <hyperlink ref="F14" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId35"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId36"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>File Name</t>
   </si>
@@ -31,9 +31,15 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>50541b66-9ac8-4776-86af-17a3ee024c58.md</t>
+  </si>
+  <si>
     <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md</t>
   </si>
   <si>
+    <t>b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md</t>
+  </si>
+  <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md</t>
   </si>
   <si>
@@ -58,9 +64,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>50541b66-9ac8-4776-86af-17a3ee024c58.md</t>
-  </si>
-  <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.md</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.md</t>
   </si>
   <si>
-    <t>b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md</t>
-  </si>
-  <si>
     <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md</t>
   </si>
   <si>
@@ -127,6 +127,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:44:25</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:45:25</t>
+  </si>
+  <si>
     <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,15 +145,15 @@
     <t>2016-03-04 11:41:52</t>
   </si>
   <si>
+    <t>b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
   </si>
   <si>
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:44:25</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -163,9 +172,6 @@
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf</t>
   </si>
   <si>
@@ -181,9 +187,6 @@
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf</t>
   </si>
   <si>
@@ -199,6 +202,15 @@
     <t>2016-03-04 11:26:41</t>
   </si>
   <si>
+    <t>50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:44:42</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:45:48</t>
+  </si>
+  <si>
     <t>a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf</t>
   </si>
   <si>
@@ -208,15 +220,15 @@
     <t>2016-03-04 11:42:15</t>
   </si>
   <si>
+    <t>b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.de-de.xlf</t>
+  </si>
+  <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
   </si>
   <si>
     <t>2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:44:42</t>
-  </si>
-  <si>
     <t>00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf</t>
   </si>
   <si>
@@ -232,9 +244,6 @@
     <t>2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf</t>
   </si>
   <si>
-    <t>50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.de-de.xlf</t>
-  </si>
-  <si>
     <t>56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf</t>
   </si>
   <si>
@@ -248,9 +257,6 @@
   </si>
   <si>
     <t>9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.de-de.xlf</t>
   </si>
   <si>
     <t>ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf</t>
@@ -418,26 +424,26 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
@@ -448,35 +454,35 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -484,10 +490,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -495,10 +501,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -506,10 +512,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -517,10 +523,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -528,10 +534,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -539,10 +545,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -559,19 +565,19 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId15"/>
+    <hyperlink ref="A3" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId15"/>
     <hyperlink ref="A16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId16"/>
     <hyperlink ref="A17" display=".localization-config" r:id="rId17"/>
   </hyperlinks>
@@ -693,7 +699,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -702,7 +708,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>36</v>
@@ -713,16 +719,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>36</v>
@@ -730,19 +742,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>36</v>
@@ -750,19 +768,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>36</v>
@@ -770,19 +788,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>36</v>
@@ -790,19 +808,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>36</v>
@@ -810,19 +828,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>36</v>
@@ -833,16 +851,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>36</v>
@@ -853,16 +871,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>36</v>
@@ -873,16 +891,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>36</v>
@@ -893,16 +911,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>36</v>
@@ -913,16 +931,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>36</v>
@@ -933,22 +951,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>36</v>
@@ -962,13 +980,13 @@
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -977,41 +995,45 @@
     <hyperlink ref="C2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId24"/>
-    <hyperlink ref="C10" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId26"/>
-    <hyperlink ref="C11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId28"/>
-    <hyperlink ref="C12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId30"/>
-    <hyperlink ref="C13" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId32"/>
-    <hyperlink ref="C14" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A15" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId34"/>
-    <hyperlink ref="C15" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId36"/>
-    <hyperlink ref="C16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="E16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId38"/>
-    <hyperlink ref="F16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId40"/>
+    <hyperlink ref="A3" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A8" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId24"/>
+    <hyperlink ref="C8" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A9" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId26"/>
+    <hyperlink ref="C9" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A10" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId28"/>
+    <hyperlink ref="C10" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A11" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId30"/>
+    <hyperlink ref="C11" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A12" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId32"/>
+    <hyperlink ref="C12" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A13" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId34"/>
+    <hyperlink ref="C13" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A14" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId36"/>
+    <hyperlink ref="C14" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A15" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId38"/>
+    <hyperlink ref="C15" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId40"/>
+    <hyperlink ref="C16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="E16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId42"/>
+    <hyperlink ref="F16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId44"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1076,19 +1098,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>36</v>
@@ -1102,19 +1124,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>36</v>
@@ -1128,19 +1150,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>36</v>
@@ -1151,16 +1173,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>36</v>
@@ -1168,19 +1196,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>36</v>
@@ -1188,19 +1222,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>36</v>
@@ -1208,19 +1242,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>36</v>
@@ -1228,19 +1262,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>36</v>
@@ -1248,19 +1282,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>36</v>
@@ -1271,16 +1305,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>36</v>
@@ -1291,16 +1325,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>36</v>
@@ -1311,16 +1345,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>36</v>
@@ -1331,16 +1365,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>36</v>
@@ -1351,16 +1385,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>36</v>
@@ -1371,22 +1405,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>36</v>
@@ -1400,13 +1434,13 @@
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1415,41 +1449,45 @@
     <hyperlink ref="C2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.md" r:id="rId4"/>
     <hyperlink ref="F2" display="2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A10" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId24"/>
-    <hyperlink ref="C10" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId26"/>
-    <hyperlink ref="C11" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId28"/>
-    <hyperlink ref="C12" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A13" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId30"/>
-    <hyperlink ref="C13" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A14" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId32"/>
-    <hyperlink ref="C14" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A15" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId34"/>
-    <hyperlink ref="C15" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="A16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId36"/>
-    <hyperlink ref="C16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="E16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId38"/>
-    <hyperlink ref="F16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId40"/>
+    <hyperlink ref="A3" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="50541b66-9ac8-4776-86af-17a3ee024c58.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="50541b66-9ac8-4776-86af-17a3ee024c58.c96ac75ca0636f9c4d644e85847391e419c3ca53.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="a9bbd31b-ba1a-43be-8283-e0449dfb64a3.4b85245b70f44bd200ce05933bb03c63363c7586.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="b7ec2e9a-3409-4e69-a906-a7f57c7ccf0a.12aeb55a6c3711b15a1810bd00ef52c5755e3ee4.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="2b1e84f5-4e21-4118-b585-18ce02902122.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="2b1e84f5-4e21-4118-b585-18ce02902122.da7785ae388e32b88ae6e32b04dead74c97effd7.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A8" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.md" r:id="rId24"/>
+    <hyperlink ref="C8" display="00ec7677-27a6-427d-8c89-36ba41b0dd4a.559662ad640a542d49fe3decfb985de9b2c6a7f5.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A9" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.md" r:id="rId26"/>
+    <hyperlink ref="C9" display="c5e18c7f-c5ec-408f-bee8-1a71e0d7563e.5c3a20472e6cd8a4b16f38eceb0ff55940441560.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A10" display="2967e584-08c7-4bff-850d-71fa8b2513a3.md" r:id="rId28"/>
+    <hyperlink ref="C10" display="2967e584-08c7-4bff-850d-71fa8b2513a3.9468b5912c0580bd4975e999e5911d3db4a59be6.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A11" display="56d39380-9848-4761-8625-45769d9c92ae.md" r:id="rId30"/>
+    <hyperlink ref="C11" display="56d39380-9848-4761-8625-45769d9c92ae.8ab465c1033344621c49f2612746e2e98f7990e3.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A12" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.md" r:id="rId32"/>
+    <hyperlink ref="C12" display="6b4be95e-a1b6-4661-8dc9-6a43c496f9b3.9bbf87248876b084464e96c6fdfdb2adcffa8edf.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A13" display="76924ecc-729a-4188-92c1-f648ca3c99b0.md" r:id="rId34"/>
+    <hyperlink ref="C13" display="76924ecc-729a-4188-92c1-f648ca3c99b0.dd6d64ef6b30933b079ddb338731c6695fe74b26.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A14" display="88032866-4fa7-43a5-b857-035dcccd9216.md" r:id="rId36"/>
+    <hyperlink ref="C14" display="88032866-4fa7-43a5-b857-035dcccd9216.5a7182998dec231d543e30061b8531c853d941a9.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A15" display="9979dab3-146f-4719-9a05-ce3444496cf8.md" r:id="rId38"/>
+    <hyperlink ref="C15" display="9979dab3-146f-4719-9a05-ce3444496cf8.85da2411cd0bbab3d9acb63319dfb6bbaca32790.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId40"/>
+    <hyperlink ref="C16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="E16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.md" r:id="rId42"/>
+    <hyperlink ref="F16" display="ffc1b5c2-7bc2-4b3c-aee5-853c0503e9a0.e45ae08e39f333a285b5ea6994f9446919fe1b70.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId44"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -25,7 +25,7 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>test-content-1.md</t>
+    <t>e6b6dbde-6cab-4af2-a341-c63f5dad05e4.md</t>
   </si>
   <si>
     <t>Handoff transform failed</t>
@@ -218,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="e6b6dbde-6cab-4af2-a341-c63f5dad05e4.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -312,7 +312,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="e6b6dbde-6cab-4af2-a341-c63f5dad05e4.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -406,7 +406,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="e6b6dbde-6cab-4af2-a341-c63f5dad05e4.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>e443dd1e-745a-4351-8473-352b28f0a4e8.23c5e751192be858ba329c44b9c97a0b2c754979.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 15:15:42</t>
+    <t>2016-03-04 15:17:01</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>e443dd1e-745a-4351-8473-352b28f0a4e8.23c5e751192be858ba329c44b9c97a0b2c754979.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 15:16:15</t>
+    <t>2016-03-04 15:17:14</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>32dfc3fa-b025-4c9b-a449-6da0777076ef.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>32dfc3fa-b025-4c9b-a449-6da0777076ef.md</t>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,7 +67,7 @@
     <t>32dfc3fa-b025-4c9b-a449-6da0777076ef.885c2040015bdf15ac796abcdae7009d3e8f019f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 15:19:39</t>
+    <t>2016-03-04 15:22:38</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>32dfc3fa-b025-4c9b-a449-6da0777076ef.885c2040015bdf15ac796abcdae7009d3e8f019f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 15:20:21</t>
+    <t>2016-03-04 15:22:56</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>32dfc3fa-b025-4c9b-a449-6da0777076ef.885c2040015bdf15ac796abcdae7009d3e8f019f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 15:22:38</t>
+    <t>2016-03-04 15:23:33</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>32dfc3fa-b025-4c9b-a449-6da0777076ef.885c2040015bdf15ac796abcdae7009d3e8f019f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 15:22:56</t>
+    <t>2016-03-04 15:24:00</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>77ab220a-9b6f-43c7-9a44-7a1ee62b1e34.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>77ab220a-9b6f-43c7-9a44-7a1ee62b1e34.md</t>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,7 +67,7 @@
     <t>77ab220a-9b6f-43c7-9a44-7a1ee62b1e34.d5b94f58ebd67bc23d9b77d01e262d302ea96034.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 16:57:41</t>
+    <t>2016-03-04 16:59:31</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>77ab220a-9b6f-43c7-9a44-7a1ee62b1e34.d5b94f58ebd67bc23d9b77d01e262d302ea96034.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 16:58:03</t>
+    <t>2016-03-04 16:59:43</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>77ab220a-9b6f-43c7-9a44-7a1ee62b1e34.d5b94f58ebd67bc23d9b77d01e262d302ea96034.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 16:59:31</t>
+    <t>2016-03-04 17:00:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>77ab220a-9b6f-43c7-9a44-7a1ee62b1e34.d5b94f58ebd67bc23d9b77d01e262d302ea96034.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 16:59:43</t>
+    <t>2016-03-04 17:00:49</t>
   </si>
 </sst>
 </file>
